--- a/禄昌恒最终表格/2019/11月日报表(1).xlsx
+++ b/禄昌恒最终表格/2019/11月日报表(1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\禄昌恒\禄昌恒最终表格\2019\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C0A050-8630-4554-9EE2-0AC8F06ED9F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>备注：</t>
   </si>
@@ -269,9 +263,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>30pcs</t>
-  </si>
-  <si>
     <t>ZP318113 订单号：CG201911070011</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -308,29 +299,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>974 pcs</t>
-  </si>
-  <si>
-    <t>2000PCS</t>
-  </si>
-  <si>
-    <t>120Pcs</t>
-  </si>
-  <si>
-    <t>2120pcs</t>
-  </si>
-  <si>
-    <t>JX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ZJ</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>华新</t>
-  </si>
-  <si>
     <t xml:space="preserve">计划2019-11-24 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -382,86 +354,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Zp328843 订单号：CG201911200049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>620pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp518014 订单号：CG201911200049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP518024 订单号：CG201911200049</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>600pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp328851 订单号：CG201911200021</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP138322 订单号：CG201911220010</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>计划2019-11-28</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-12-10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2019-11-30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP511913  订单号：CG201911250002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天敏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zp519302 订单号:CG201911220032</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP528821 订单号:CG201911220032</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp139901 订单号:CG201911220032</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,25 +774,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
+    <col min="1" max="1" width="52.75" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="56.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="56.125" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -907,7 +807,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,7 +832,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -956,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -977,7 +877,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -998,7 +898,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +919,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +940,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +961,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +982,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1003,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1124,15 +1024,15 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1145,7 +1045,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1053,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -1166,7 +1066,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1174,7 +1074,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>47</v>
@@ -1187,7 +1087,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1095,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -1208,7 +1108,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1220,14 +1120,14 @@
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1135,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>49</v>
@@ -1248,7 +1148,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1269,7 +1169,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1277,41 +1177,41 @@
         <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1322,289 +1222,201 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>90</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>75</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>75</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>73</v>
-      </c>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>74</v>
-      </c>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>75</v>
-      </c>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>74</v>
-      </c>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="7"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1614,105 +1426,6 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
